--- a/data/trans_bre/P1427-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.668036934397053</v>
+        <v>-2.613659962759646</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.02714992973849233</v>
+        <v>0.1875631173431945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2952592191716099</v>
+        <v>-0.3291724094194679</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6080557754729313</v>
+        <v>-0.5500999706305438</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3858510731633815</v>
+        <v>-0.5090475865646827</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6583530282559616</v>
+        <v>-0.7481857420490948</v>
       </c>
     </row>
     <row r="6">
@@ -664,18 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.597891799824375</v>
+        <v>3.31717587649036</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.186444410539615</v>
+        <v>5.127219648531051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.691000381416034</v>
+        <v>1.661214235079681</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.829260538856363</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>1.807434420399142</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="H6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -716,20 +720,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.04793264312708589</v>
+        <v>-0.05417545987956392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007993446349951546</v>
+        <v>0.01848101511908284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06882907753943047</v>
+        <v>-0.07432919806855871</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1699247471408054</v>
+        <v>-0.2768551110642794</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.06222140916158543</v>
+        <v>-0.07947987952495168</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +744,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.5510508822202</v>
+        <v>3.704821488328927</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.198075200251704</v>
+        <v>2.197469486003858</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.85287115845843</v>
+        <v>3.676013529849629</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.943447807823001</v>
+        <v>7.603006674902232</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>2.831751458610974</v>
+        <v>2.657373540018013</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +778,7 @@
         <v>-0.05941630858723873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.1358125017520161</v>
+        <v>-0.1358125017520168</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.2319874253188177</v>
@@ -783,7 +787,7 @@
         <v>-0.03659336048790611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.02291027194181782</v>
+        <v>-0.02291027194181794</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +798,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.55368730694211</v>
+        <v>-1.712277796631105</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.854142390635815</v>
+        <v>-1.986859201979476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.000530337120291</v>
+        <v>-2.975118866337226</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8102526224092619</v>
+        <v>-0.7164300023464161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8066668151218589</v>
+        <v>-0.7775685203225197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3962898954475527</v>
+        <v>-0.3906202553505624</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +824,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.455158989182078</v>
+        <v>2.255404679281031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.958542503889455</v>
+        <v>1.954186223809794</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.406770119394589</v>
+        <v>2.419178964524562</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.199574713477331</v>
+        <v>3.660979290357375</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.853067981491028</v>
+        <v>2.90751409007083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5407225412226165</v>
+        <v>0.5312055928972448</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +860,7 @@
         <v>0.9341281817695459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3308481887423869</v>
+        <v>0.3308481887423873</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4884782731305851</v>
@@ -865,7 +869,7 @@
         <v>1.232198960336754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1773527334583259</v>
+        <v>0.1773527334583262</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.436814752694176</v>
+        <v>-1.340749486077099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5138033059482346</v>
+        <v>-0.4625451082152942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.317298430427542</v>
+        <v>-1.316024875652038</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4602813854519532</v>
+        <v>-0.4400059421143894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6609623664488961</v>
+        <v>-0.5741996520565423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4612189454144464</v>
+        <v>-0.4677698392055563</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +906,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.450160322635666</v>
+        <v>3.628151319201504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.699953356203177</v>
+        <v>2.915587132054004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.780051196998762</v>
+        <v>1.734902235284815</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.737316799492621</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>10.69910065107857</v>
-      </c>
+        <v>2.935981337847666</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.738920912592261</v>
+        <v>1.553803346630108</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +940,7 @@
         <v>3.078357420089908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.6828666747224689</v>
+        <v>-0.6828666747224696</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1938614160172269</v>
@@ -949,7 +951,7 @@
         </is>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1615871994901954</v>
+        <v>-0.1615871994901956</v>
       </c>
     </row>
     <row r="17">
@@ -960,20 +962,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.40573352912001</v>
+        <v>-3.012994807626681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.042810296780649</v>
+        <v>1.037431564529342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.57147174722279</v>
+        <v>-3.674904796427036</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5656074103776563</v>
+        <v>-0.488046865172653</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.5927289354269224</v>
+        <v>-0.5940174608287465</v>
       </c>
     </row>
     <row r="18">
@@ -984,20 +986,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.933455516549568</v>
+        <v>6.078147805035618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.936062554790364</v>
+        <v>6.196267585521456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.769916265367772</v>
+        <v>1.64742545720163</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.20032260203677</v>
+        <v>3.023061780953025</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.69657253411051</v>
+        <v>0.603424841651411</v>
       </c>
     </row>
     <row r="19">
@@ -1018,7 +1020,7 @@
         <v>1.435043988993673</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.308254840396911</v>
+        <v>1.308254840396904</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.8222538656085746</v>
@@ -1027,7 +1029,7 @@
         <v>0.8953036444350102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1224731152042843</v>
+        <v>0.1224731152042836</v>
       </c>
     </row>
     <row r="20">
@@ -1038,20 +1040,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.8959037905368163</v>
+        <v>-1.175089478607587</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.919770162603922</v>
+        <v>-0.9667083340150229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.566855869473545</v>
+        <v>-2.877049715704227</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.5123740405703401</v>
+        <v>-0.520789117144846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1949863865210524</v>
+        <v>-0.225293288085039</v>
       </c>
     </row>
     <row r="21">
@@ -1062,20 +1064,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.465262894414843</v>
+        <v>2.494221068499281</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.374720286684896</v>
+        <v>4.341849795909124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.993201577725024</v>
+        <v>5.019590277740879</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>6.244638435849008</v>
+        <v>6.233681841319616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5961641384207246</v>
+        <v>0.5791914422827391</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1098,7 @@
         <v>1.104269659738262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.267923805948712</v>
+        <v>3.267923805948711</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.03328543089341663</v>
@@ -1105,7 +1107,7 @@
         <v>0.6427625900676274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1.035537754410792</v>
+        <v>1.035537754410791</v>
       </c>
     </row>
     <row r="23">
@@ -1116,22 +1118,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.852665102494168</v>
+        <v>-1.87742496416491</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4135695078121485</v>
+        <v>-0.4982287175241445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9470015539393445</v>
+        <v>1.2497180821691</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.5954349364350091</v>
+        <v>-0.5567428317190193</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2285866919057185</v>
+        <v>-0.2733378667376444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1604567900206355</v>
+        <v>0.219538350344308</v>
       </c>
     </row>
     <row r="24">
@@ -1142,22 +1144,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.609126402071873</v>
+        <v>1.66800924597124</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.017422883855025</v>
+        <v>2.91722732956049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.076629811009662</v>
+        <v>5.339501220364993</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.343949921324912</v>
+        <v>1.245960333363924</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.642646454368399</v>
+        <v>2.698732519123692</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.283544945151583</v>
+        <v>2.324947719449662</v>
       </c>
     </row>
     <row r="25">
@@ -1187,7 +1189,7 @@
         <v>1.26778235757793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.885563074329595</v>
+        <v>0.8855630743295955</v>
       </c>
     </row>
     <row r="26">
@@ -1198,22 +1200,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.100986776388463</v>
+        <v>-0.9790565349276503</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01546610702028729</v>
+        <v>-0.009772071287323028</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1197851913478607</v>
+        <v>0.1995302254498936</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4665176406045997</v>
+        <v>-0.4036865705320773</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1161221847595441</v>
+        <v>-0.1335904177891605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04306430740545887</v>
+        <v>0.03415151423768542</v>
       </c>
     </row>
     <row r="27">
@@ -1224,22 +1226,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.001494048990784</v>
+        <v>1.939257715234032</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.658044546278413</v>
+        <v>2.526238842250766</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.392435787396761</v>
+        <v>2.350861821326087</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.983658950159285</v>
+        <v>2.051329584878599</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.470814087238712</v>
+        <v>4.443184103972412</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.849172585084579</v>
+        <v>2.739804968397348</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1262,7 @@
         <v>1.227554569324429</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.326600719613363</v>
+        <v>1.326600719613362</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.3335523767179392</v>
@@ -1269,7 +1271,7 @@
         <v>1.177441299768697</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4269247570166962</v>
+        <v>0.426924757016696</v>
       </c>
     </row>
     <row r="29">
@@ -1280,22 +1282,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.08742677180048393</v>
+        <v>-0.05543236660849103</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6643709714962553</v>
+        <v>0.5807155272026844</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6131670327461665</v>
+        <v>0.5605531697107875</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.03955566122699851</v>
+        <v>-0.03212621203701804</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4768050405008286</v>
+        <v>0.4483101905756763</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1737391424766802</v>
+        <v>0.1597615005277319</v>
       </c>
     </row>
     <row r="30">
@@ -1306,22 +1308,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.415895122206625</v>
+        <v>1.386929441536753</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.895201213134668</v>
+        <v>1.832949575587357</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.04581414742062</v>
+        <v>2.011685039688197</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.9447986469714048</v>
+        <v>0.811961554120347</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.269775553079402</v>
+        <v>2.247296773201008</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7418363169531166</v>
+        <v>0.7236128288588995</v>
       </c>
     </row>
     <row r="31">
